--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,59</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,34</t>
+          <t>30,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,71</t>
+          <t>23,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -1,41</t>
+          <t>-1,23; 30,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 17,8</t>
+          <t>-16,46; 4,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,77; -12,98</t>
+          <t>12,2; 47,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 7,13</t>
+          <t>-6,0; 16,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,71; -12,42</t>
+          <t>11,5; 36,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 6,61</t>
+          <t>-6,89; 8,9</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>156,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>-40,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,32%</t>
+          <t>495,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>118,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,76%</t>
+          <t>298,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -2,37</t>
+          <t>-14,34; 984,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 23,05</t>
+          <t>-91,03; 174,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,9; -15,59</t>
+          <t>44,27; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 7,56</t>
+          <t>-47,78; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; -14,28</t>
+          <t>72,9; 1016,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 7,65</t>
+          <t>-50,63; 257,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,36</t>
+          <t>20,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,07</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>11,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -0,96</t>
+          <t>2,41; 24,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,88</t>
+          <t>-4,96; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 1,15</t>
+          <t>-0,89; 15,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -8,26</t>
+          <t>8,3; 32,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 3,18</t>
+          <t>-2,97; 20,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -4,86</t>
+          <t>3,8; 22,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -8,34</t>
+          <t>8,27; 25,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 1,78</t>
+          <t>-1,8; 13,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -4,53</t>
+          <t>4,78; 18,14</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>261,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>167,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,64%</t>
+          <t>146,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>101,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,15%</t>
+          <t>161,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,14%</t>
+          <t>117,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -1,09</t>
+          <t>-11,61; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,51</t>
+          <t>-72,2; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 0,82</t>
+          <t>-31,49; 1051,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -10,55</t>
+          <t>36,49; 367,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 3,92</t>
+          <t>-19,89; 218,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,09; -6,26</t>
+          <t>16,19; 256,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -9,65</t>
+          <t>55,84; 357,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 1,96</t>
+          <t>-13,64; 187,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -5,5</t>
+          <t>27,48; 269,1</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,87</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,5</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,47</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,36</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,58</t>
+          <t>15,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,48; -0,0</t>
+          <t>-0,45; 24,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 7,83</t>
+          <t>-7,07; 10,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,3; -8,97</t>
+          <t>8,31; 28,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 2,21</t>
+          <t>-2,86; 21,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 14,15</t>
+          <t>-13,28; 8,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,56; -2,71</t>
+          <t>2,09; 22,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -1,09</t>
+          <t>0,34; 18,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 8,92</t>
+          <t>-9,21; 6,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -7,55</t>
+          <t>7,86; 22,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>188,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>338,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>-22,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>100,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>149,31%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -0,28</t>
+          <t>-41,71; 1209,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,64</t>
+          <t>-78,23; 591,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,15; -10,05</t>
+          <t>58,26; 1416,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 2,68</t>
+          <t>-20,52; 276,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 17,38</t>
+          <t>-75,3; 126,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -3,43</t>
+          <t>5,17; 294,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -1,8</t>
+          <t>-2,33; 265,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 10,39</t>
+          <t>-63,03; 86,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -8,99</t>
+          <t>47,1; 375,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-12,93</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -0,99</t>
+          <t>2,16; 18,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,64; -2,94</t>
+          <t>2,38; 23,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 2,62</t>
+          <t>-2,63; 11,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -4,43</t>
+          <t>3,58; 27,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 5,55</t>
+          <t>-6,19; 20,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 5,69</t>
+          <t>-6,04; 13,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,5; -4,69</t>
+          <t>5,13; 20,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -0,41</t>
+          <t>-0,02; 18,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 2,4</t>
+          <t>-2,29; 10,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,17%</t>
+          <t>207,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>262,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>102,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>101,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>117,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>43,64%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; -1,32</t>
+          <t>-3,63; 1140,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -3,25</t>
+          <t>-8,47; 1344,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 2,88</t>
+          <t>-42,51; 732,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -5,97</t>
+          <t>13,73; 312,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 6,96</t>
+          <t>-31,26; 207,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 7,35</t>
+          <t>-27,48; 161,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -5,78</t>
+          <t>35,57; 330,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -0,6</t>
+          <t>-2,65; 258,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 2,74</t>
+          <t>-15,37; 165,34</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,71</t>
+          <t>-13,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 14,44</t>
+          <t>-14,2; 25,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 29,94</t>
+          <t>-29,1; -1,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 17,62</t>
+          <t>-16,65; 14,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 10,37</t>
+          <t>-10,1; 25,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 17,16</t>
+          <t>-16,56; 18,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 14,36</t>
+          <t>-13,23; 15,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 5,85</t>
+          <t>-7,38; 18,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 18,3</t>
+          <t>-17,11; 6,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 8,81</t>
+          <t>-10,25; 11,89</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>-78,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 20,06</t>
+          <t>-61,17; 333,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,86; 44,34</t>
+          <t>-100,0; 74,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 25,35</t>
+          <t>-59,39; 203,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 14,99</t>
+          <t>-34,83; 224,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 24,77</t>
+          <t>-55,73; 165,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 21,96</t>
+          <t>-41,21; 169,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 7,82</t>
+          <t>-27,05; 149,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 25,76</t>
+          <t>-64,84; 56,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 12,36</t>
+          <t>-37,19; 103,74</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-14,8</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-12,87</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-14,85</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-19,2</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-19,12</t>
+          <t>19,12</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-13,98</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-16,67</t>
+          <t>16,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -0,94</t>
+          <t>2,48; 28,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,54; -0,1</t>
+          <t>-0,37; 25,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -1,74</t>
+          <t>3,05; 24,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 0,06</t>
+          <t>-0,06; 27,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-34,6; -3,76</t>
+          <t>5,33; 35,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,11; -7,05</t>
+          <t>6,56; 28,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -4,55</t>
+          <t>4,46; 24,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -5,45</t>
+          <t>6,62; 27,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,83; -8,29</t>
+          <t>7,81; 24,04</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-16,05%</t>
+          <t>189,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>164,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>190,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>100,02%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-22,22%</t>
+          <t>141,09%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>140,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-15,76%</t>
+          <t>123,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>145,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-18,78%</t>
+          <t>147,75%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,1; -1,18</t>
+          <t>5,52; 1310,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -0,33</t>
+          <t>-23,59; 1023,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -2,67</t>
+          <t>7,49; 1000,09</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,01; -0,26</t>
+          <t>-3,66; 412,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -5,23</t>
+          <t>18,03; 454,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,96; -9,39</t>
+          <t>25,28; 380,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,89; -5,35</t>
+          <t>19,83; 347,85</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -6,76</t>
+          <t>35,81; 391,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -10,3</t>
+          <t>40,62; 379,6</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-17,66</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-22,79</t>
+          <t>22,79</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-16,83</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-9,17</t>
+          <t>9,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -3,83</t>
+          <t>2,9; 19,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -2,32</t>
+          <t>2,69; 16,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -1,93</t>
+          <t>1,87; 14,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -10,03</t>
+          <t>9,53; 25,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-31,25; -13,91</t>
+          <t>14,72; 32,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 3,17</t>
+          <t>-2,49; 22,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -8,81</t>
+          <t>9,02; 21,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-22,81; -10,81</t>
+          <t>11,51; 23,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 0,32</t>
+          <t>0,12; 16,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,04%</t>
+          <t>256,83%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>217,93%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>191,82%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-18,42%</t>
+          <t>426,54%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-23,77%</t>
+          <t>550,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>236,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>351,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-17,55%</t>
+          <t>407,29%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>221,96%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -3,93</t>
+          <t>26,42; 1115,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -2,7</t>
+          <t>28,37; 1060,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -2,04</t>
+          <t>1,66; 812,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -10,9</t>
+          <t>105,55; 1390,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,69; -14,76</t>
+          <t>149,37; 1650,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 3,51</t>
+          <t>-22,15; 858,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,26; -9,41</t>
+          <t>142,29; 942,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,58; -11,42</t>
+          <t>176,65; 1034,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 0,28</t>
+          <t>11,43; 543,75</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-1,89</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 12,1</t>
+          <t>-12,82; 4,83</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 12,86</t>
+          <t>-12,46; 3,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 11,71</t>
+          <t>-11,96; 2,34</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 9,35</t>
+          <t>-9,5; 9,22</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 14,52</t>
+          <t>-14,6; 2,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 8,29</t>
+          <t>-8,69; 7,8</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,7</t>
+          <t>-7,96; 5,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,92</t>
+          <t>-11,83; 0,82</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 7,71</t>
+          <t>-7,69; 3,47</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>-31,26%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-31,86%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>-29,84%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-30,31%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>-11,4%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 14,92</t>
+          <t>-74,55; 58,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 15,67</t>
+          <t>-69,03; 54,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 14,67</t>
+          <t>-63,38; 33,07</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 12,32</t>
+          <t>-40,55; 63,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 19,15</t>
+          <t>-62,82; 19,91</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 11,08</t>
+          <t>-34,64; 55,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 9,66</t>
+          <t>-39,41; 40,51</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 13,88</t>
+          <t>-57,87; 8,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 9,84</t>
+          <t>-36,44; 26,42</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>3,11; 11,14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>0,64; 7,04</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -2,02</t>
+          <t>2,11; 8,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>7,96; 16,51</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>4,29; 12,32</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,77</t>
+          <t>0,6; 11,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>7,1; 13,07</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>3,42; 9,06</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -2,75</t>
+          <t>2,79; 9,14</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>31,88; 169,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>6,32; 113,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -2,23</t>
+          <t>19,46; 132,42</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>50,8; 147,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>27,17; 105,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -0,66</t>
+          <t>7,37; 97,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>56,7; 135,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>25,97; 90,75</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,16</t>
+          <t>23,84; 91,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 30,45</t>
+          <t>0,13; 30,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 4,48</t>
+          <t>-18,3; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 47,56</t>
+          <t>12,85; 47,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 16,27</t>
+          <t>-5,64; 16,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 36,17</t>
+          <t>12,2; 35,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 8,9</t>
+          <t>-5,94; 9,0</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 984,84</t>
+          <t>-17,48; 880,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,03; 174,39</t>
+          <t>-91,12; 240,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,27; —</t>
+          <t>61,76; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; —</t>
+          <t>-51,41; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,9; 1016,12</t>
+          <t>74,41; 869,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 257,31</t>
+          <t>-48,4; 315,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 24,35</t>
+          <t>1,52; 24,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 7,79</t>
+          <t>-5,62; 8,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 15,93</t>
+          <t>-0,11; 16,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 32,68</t>
+          <t>7,38; 32,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 20,07</t>
+          <t>-2,49; 19,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 22,96</t>
+          <t>3,74; 23,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 25,01</t>
+          <t>7,4; 24,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 13,18</t>
+          <t>-2,59; 11,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 18,14</t>
+          <t>4,86; 18,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,61; —</t>
+          <t>-26,97; 1220,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,2; —</t>
+          <t>-78,69; 608,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 1051,96</t>
+          <t>-38,77; 1025,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,49; 367,27</t>
+          <t>34,21; 403,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 218,68</t>
+          <t>-18,1; 226,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 256,26</t>
+          <t>14,45; 269,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 357,16</t>
+          <t>44,14; 341,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 187,09</t>
+          <t>-21,27; 176,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 269,1</t>
+          <t>31,41; 281,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 24,59</t>
+          <t>-0,51; 23,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 10,85</t>
+          <t>-7,15; 11,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 28,1</t>
+          <t>8,3; 28,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 21,22</t>
+          <t>-3,46; 21,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 8,71</t>
+          <t>-13,68; 9,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 22,34</t>
+          <t>2,3; 22,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 18,96</t>
+          <t>1,73; 19,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 6,02</t>
+          <t>-8,21; 6,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 22,71</t>
+          <t>7,83; 22,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 1209,75</t>
+          <t>-26,44; 1509,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 591,92</t>
+          <t>-78,79; 991,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,26; 1416,14</t>
+          <t>41,96; 1562,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 276,99</t>
+          <t>-21,7; 291,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,3; 126,1</t>
+          <t>-74,46; 131,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 294,15</t>
+          <t>6,98; 279,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 265,13</t>
+          <t>5,87; 283,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,03; 86,74</t>
+          <t>-61,47; 100,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47,1; 375,29</t>
+          <t>48,63; 369,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 18,9</t>
+          <t>0,82; 17,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 23,84</t>
+          <t>2,58; 22,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 11,18</t>
+          <t>-2,94; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 27,37</t>
+          <t>3,11; 26,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 20,22</t>
+          <t>-7,68; 19,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 13,86</t>
+          <t>-6,79; 12,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 20,38</t>
+          <t>4,14; 20,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 18,23</t>
+          <t>0,39; 17,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 10,8</t>
+          <t>-2,4; 10,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1140,42</t>
+          <t>-15,7; 1168,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 1344,49</t>
+          <t>-13,59; 1332,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 732,0</t>
+          <t>-49,62; 702,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,73; 312,2</t>
+          <t>12,04; 289,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 207,09</t>
+          <t>-36,19; 210,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 161,23</t>
+          <t>-28,93; 140,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,57; 330,62</t>
+          <t>23,13; 305,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 258,14</t>
+          <t>0,88; 259,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 165,34</t>
+          <t>-15,7; 142,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 25,5</t>
+          <t>-15,81; 25,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,1; -1,23</t>
+          <t>-29,89; -2,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 14,73</t>
+          <t>-16,97; 14,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 25,9</t>
+          <t>-10,01; 25,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 18,11</t>
+          <t>-16,0; 18,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 15,81</t>
+          <t>-15,27; 16,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 18,62</t>
+          <t>-7,24; 19,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 6,02</t>
+          <t>-17,8; 5,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 11,89</t>
+          <t>-9,87; 12,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,17; 333,5</t>
+          <t>-64,17; 298,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,67</t>
+          <t>-100,0; 7,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 203,2</t>
+          <t>-60,01; 175,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 224,84</t>
+          <t>-36,42; 225,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 165,35</t>
+          <t>-56,34; 172,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 169,57</t>
+          <t>-44,34; 160,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 149,42</t>
+          <t>-33,88; 152,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 56,61</t>
+          <t>-70,1; 43,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 103,74</t>
+          <t>-35,5; 101,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,48; 28,74</t>
+          <t>2,66; 29,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 25,59</t>
+          <t>-0,08; 24,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,05; 24,44</t>
+          <t>3,79; 24,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 27,94</t>
+          <t>-0,6; 25,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,33; 35,04</t>
+          <t>4,53; 34,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,56; 28,11</t>
+          <t>5,67; 28,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,46; 24,79</t>
+          <t>3,24; 22,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,62; 27,24</t>
+          <t>6,16; 27,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,81; 24,04</t>
+          <t>7,64; 23,88</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,52; 1310,73</t>
+          <t>5,05; 1107,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 1023,55</t>
+          <t>-16,73; 946,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>7,49; 1000,09</t>
+          <t>18,51; 1102,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 412,75</t>
+          <t>-7,0; 328,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,03; 454,29</t>
+          <t>14,09; 471,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,28; 380,15</t>
+          <t>20,6; 395,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,83; 347,85</t>
+          <t>17,33; 342,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>35,81; 391,54</t>
+          <t>33,74; 397,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>40,62; 379,6</t>
+          <t>37,07; 365,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,58</t>
+          <t>2,85; 19,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,69; 16,88</t>
+          <t>1,94; 16,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 14,65</t>
+          <t>1,35; 14,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,53; 25,85</t>
+          <t>10,38; 26,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>14,72; 32,01</t>
+          <t>14,15; 32,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 22,16</t>
+          <t>-2,01; 22,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,02; 21,51</t>
+          <t>9,04; 21,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>11,51; 23,45</t>
+          <t>11,03; 22,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 16,0</t>
+          <t>0,42; 15,83</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>26,42; 1115,98</t>
+          <t>20,99; 1034,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>28,37; 1060,27</t>
+          <t>8,06; 872,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,66; 812,0</t>
+          <t>3,11; 947,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>105,55; 1390,25</t>
+          <t>124,95; 1511,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>149,37; 1650,55</t>
+          <t>160,26; 1969,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 858,04</t>
+          <t>-21,37; 822,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>142,29; 942,58</t>
+          <t>134,11; 923,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>176,65; 1034,5</t>
+          <t>153,74; 999,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,43; 543,75</t>
+          <t>11,08; 560,69</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 4,83</t>
+          <t>-12,8; 3,95</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 3,94</t>
+          <t>-12,56; 3,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 2,34</t>
+          <t>-11,15; 3,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 9,22</t>
+          <t>-8,47; 9,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 2,51</t>
+          <t>-14,45; 3,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 7,8</t>
+          <t>-8,84; 7,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 5,37</t>
+          <t>-8,24; 4,46</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 0,82</t>
+          <t>-11,62; 0,7</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,47</t>
+          <t>-8,47; 3,53</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-74,55; 58,06</t>
+          <t>-71,34; 51,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 54,99</t>
+          <t>-69,92; 42,43</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 33,07</t>
+          <t>-63,29; 44,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 63,81</t>
+          <t>-36,22; 68,41</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 19,91</t>
+          <t>-61,38; 25,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 55,68</t>
+          <t>-35,52; 54,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 40,51</t>
+          <t>-41,34; 34,22</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 8,98</t>
+          <t>-56,87; 7,12</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 26,42</t>
+          <t>-39,99; 27,18</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,14</t>
+          <t>3,16; 11,53</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,04</t>
+          <t>0,41; 7,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,31</t>
+          <t>2,24; 8,33</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,51</t>
+          <t>8,13; 16,56</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,32</t>
+          <t>4,07; 12,51</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 11,4</t>
+          <t>0,63; 11,3</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,07</t>
+          <t>7,06; 13,29</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,06</t>
+          <t>3,44; 9,26</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,14</t>
+          <t>2,12; 8,97</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>31,88; 169,6</t>
+          <t>31,49; 179,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6,32; 113,29</t>
+          <t>2,41; 114,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,46; 132,42</t>
+          <t>23,51; 131,84</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>50,8; 147,07</t>
+          <t>49,28; 142,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>27,17; 105,47</t>
+          <t>24,13; 107,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,37; 97,09</t>
+          <t>8,08; 95,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>56,7; 135,44</t>
+          <t>56,56; 133,75</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,75</t>
+          <t>26,63; 95,85</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>23,84; 91,6</t>
+          <t>19,39; 91,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 30,5</t>
+          <t>1,41; 32,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 5,05</t>
+          <t>-17,8; 5,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 47,44</t>
+          <t>12,98; 46,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 16,16</t>
+          <t>-7,13; 15,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 35,59</t>
+          <t>12,42; 36,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 9,0</t>
+          <t>-6,61; 8,88</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 880,31</t>
+          <t>1,07; 1018,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,12; 240,86</t>
+          <t>-91,22; 216,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,76; —</t>
+          <t>48,09; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,41; —</t>
+          <t>-53,83; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,41; 869,26</t>
+          <t>82,63; 1063,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 315,03</t>
+          <t>-49,42; 268,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 24,79</t>
+          <t>0,96; 23,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 8,69</t>
+          <t>-5,88; 8,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 16,48</t>
+          <t>-1,15; 15,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 32,22</t>
+          <t>8,26; 31,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 19,5</t>
+          <t>-3,18; 20,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 23,04</t>
+          <t>4,86; 23,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 24,33</t>
+          <t>8,34; 24,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,77</t>
+          <t>-1,78; 12,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 18,32</t>
+          <t>4,53; 17,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 1220,99</t>
+          <t>-21,07; 1269,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,69; 608,6</t>
+          <t>-75,74; 551,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 1025,23</t>
+          <t>-29,43; 1118,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,21; 403,87</t>
+          <t>34,92; 353,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 226,79</t>
+          <t>-19,05; 229,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 269,81</t>
+          <t>20,41; 253,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,14; 341,51</t>
+          <t>54,81; 384,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 176,71</t>
+          <t>-16,94; 185,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 281,79</t>
+          <t>28,17; 274,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 23,83</t>
+          <t>0,0; 25,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 11,46</t>
+          <t>-7,83; 10,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 28,87</t>
+          <t>8,97; 28,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 21,45</t>
+          <t>-2,21; 21,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 9,34</t>
+          <t>-14,15; 7,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 22,96</t>
+          <t>2,71; 22,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 19,8</t>
+          <t>1,09; 18,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,52</t>
+          <t>-8,92; 5,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 22,93</t>
+          <t>7,55; 22,67</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1509,61</t>
+          <t>-25,71; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,79; 991,78</t>
+          <t>-73,98; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,96; 1562,32</t>
+          <t>63,69; 1521,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 291,83</t>
+          <t>-16,33; 270,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,46; 131,89</t>
+          <t>-77,85; 107,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 279,3</t>
+          <t>7,57; 293,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 283,91</t>
+          <t>3,09; 289,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 100,62</t>
+          <t>-61,01; 88,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,63; 369,68</t>
+          <t>43,91; 363,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 17,79</t>
+          <t>0,99; 18,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 22,48</t>
+          <t>2,94; 23,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 11,17</t>
+          <t>-2,62; 11,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 26,47</t>
+          <t>4,43; 27,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 19,19</t>
+          <t>-5,55; 19,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 12,88</t>
+          <t>-5,69; 12,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 20,64</t>
+          <t>4,69; 20,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 17,73</t>
+          <t>0,41; 17,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 10,28</t>
+          <t>-2,4; 10,82</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 1168,74</t>
+          <t>-9,86; 1057,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 1332,93</t>
+          <t>7,41; 1456,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 702,47</t>
+          <t>-45,03; 741,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 289,76</t>
+          <t>15,35; 278,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 210,57</t>
+          <t>-29,54; 196,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 140,44</t>
+          <t>-25,95; 139,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,13; 305,06</t>
+          <t>23,79; 291,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 259,23</t>
+          <t>-0,18; 250,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 142,42</t>
+          <t>-15,29; 170,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 25,52</t>
+          <t>-14,44; 25,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,89; -2,09</t>
+          <t>-29,94; -1,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 14,01</t>
+          <t>-17,62; 14,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 25,99</t>
+          <t>-10,37; 24,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 18,93</t>
+          <t>-17,16; 17,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 16,59</t>
+          <t>-14,36; 15,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 19,98</t>
+          <t>-5,85; 20,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 5,84</t>
+          <t>-18,3; 4,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 12,02</t>
+          <t>-8,81; 12,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 298,27</t>
+          <t>-63,94; 303,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7,55</t>
+          <t>-100,0; 40,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 175,09</t>
+          <t>-61,76; 193,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 225,47</t>
+          <t>-37,33; 214,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 172,39</t>
+          <t>-61,74; 169,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 160,94</t>
+          <t>-43,95; 156,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 152,6</t>
+          <t>-27,13; 165,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 43,68</t>
+          <t>-67,94; 46,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 101,97</t>
+          <t>-32,63; 104,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,66; 29,08</t>
+          <t>0,94; 28,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 24,41</t>
+          <t>0,1; 25,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,79; 24,55</t>
+          <t>1,74; 23,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 25,5</t>
+          <t>-0,06; 27,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,53; 34,96</t>
+          <t>3,76; 34,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,67; 28,87</t>
+          <t>7,05; 29,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 22,96</t>
+          <t>4,55; 23,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,16; 27,92</t>
+          <t>5,45; 26,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,64; 23,88</t>
+          <t>8,29; 23,83</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,05; 1107,93</t>
+          <t>-12,01; 1050,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 946,39</t>
+          <t>-13,67; 863,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,51; 1102,05</t>
+          <t>3,27; 1018,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 328,94</t>
+          <t>-3,66; 412,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,09; 471,55</t>
+          <t>15,28; 519,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,6; 395,6</t>
+          <t>27,33; 383,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,33; 342,07</t>
+          <t>22,51; 338,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>33,74; 397,5</t>
+          <t>31,11; 363,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,07; 365,81</t>
+          <t>48,01; 364,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,85; 19,1</t>
+          <t>3,83; 20,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,94; 16,42</t>
+          <t>2,32; 16,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,35; 14,6</t>
+          <t>1,93; 14,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,38; 26,44</t>
+          <t>10,03; 26,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>14,15; 32,29</t>
+          <t>13,91; 31,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 22,54</t>
+          <t>-3,17; 22,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,04; 21,03</t>
+          <t>8,81; 20,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>11,03; 22,85</t>
+          <t>10,81; 22,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 15,83</t>
+          <t>-0,32; 16,12</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>20,99; 1034,92</t>
+          <t>31,16; 1034,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,06; 872,32</t>
+          <t>15,87; 892,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,11; 947,78</t>
+          <t>17,51; 845,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>124,95; 1511,51</t>
+          <t>121,04; 1250,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>160,26; 1969,25</t>
+          <t>173,24; 1717,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 822,83</t>
+          <t>-25,75; 796,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>134,11; 923,67</t>
+          <t>131,76; 838,89</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>153,74; 999,67</t>
+          <t>159,37; 950,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,08; 560,69</t>
+          <t>7,63; 518,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 3,95</t>
+          <t>-12,1; 4,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 3,4</t>
+          <t>-12,86; 3,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 3,38</t>
+          <t>-11,71; 2,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 9,81</t>
+          <t>-9,35; 9,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 3,58</t>
+          <t>-14,52; 3,21</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 7,59</t>
+          <t>-8,29; 8,2</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 4,46</t>
+          <t>-7,7; 4,91</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 0,7</t>
+          <t>-10,92; 1,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,53</t>
+          <t>-7,71; 4,06</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-71,34; 51,88</t>
+          <t>-71,52; 51,26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 42,43</t>
+          <t>-69,9; 48,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,29; 44,21</t>
+          <t>-63,39; 39,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 68,41</t>
+          <t>-39,74; 66,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 25,88</t>
+          <t>-61,21; 22,7</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 54,81</t>
+          <t>-33,68; 61,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 34,22</t>
+          <t>-39,4; 40,3</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 7,12</t>
+          <t>-56,08; 10,74</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 27,18</t>
+          <t>-36,79; 34,0</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,53</t>
+          <t>3,09; 10,84</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,41</t>
+          <t>0,53; 7,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,33</t>
+          <t>2,02; 8,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,56</t>
+          <t>8,12; 16,97</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,51</t>
+          <t>3,89; 12,69</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,3</t>
+          <t>0,77; 11,56</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,29</t>
+          <t>7,09; 13,03</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,26</t>
+          <t>3,59; 9,18</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,97</t>
+          <t>2,75; 9,29</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>31,49; 179,99</t>
+          <t>30,64; 168,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,41; 114,62</t>
+          <t>5,34; 115,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>23,51; 131,84</t>
+          <t>20,87; 136,4</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>49,28; 142,29</t>
+          <t>50,61; 147,56</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,13; 107,24</t>
+          <t>24,13; 110,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,08; 95,09</t>
+          <t>6,95; 101,2</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>56,56; 133,75</t>
+          <t>56,37; 133,21</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>26,63; 95,85</t>
+          <t>29,49; 93,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>19,39; 91,25</t>
+          <t>23,34; 96,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>-15,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-39,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,34</t>
+          <t>-30,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-23,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,71</t>
+          <t>-23,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; 8,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 32,07</t>
+          <t>-32,07; -1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 5,22</t>
+          <t>-5,14; 17,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,89; -21,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 46,77</t>
+          <t>-46,77; -12,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 15,5</t>
+          <t>-15,25; 7,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,21; -11,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,42; 36,71</t>
+          <t>-36,71; -12,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,88</t>
+          <t>-8,58; 6,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>156,69%</t>
+          <t>-17,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-40,82%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>495,98%</t>
+          <t>-32,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>118,69%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>298,87%</t>
+          <t>-25,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>-1,96%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; 10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1018,64</t>
+          <t>-34,1; -2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,22; 216,6</t>
+          <t>-5,42; 23,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,31; -25,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,09; —</t>
+          <t>-48,9; -15,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,83; —</t>
+          <t>-15,76; 7,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,62; -13,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,63; 1063,44</t>
+          <t>-38,82; -14,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 268,41</t>
+          <t>-8,95; 7,86</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>-11,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>-20,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>-16,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>-11,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 23,49</t>
+          <t>-23,49; -0,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 8,48</t>
+          <t>-8,48; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 15,69</t>
+          <t>-15,49; 1,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 31,97</t>
+          <t>-31,97; -8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 20,04</t>
+          <t>-20,04; 3,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 23,28</t>
+          <t>-22,82; -4,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 24,58</t>
+          <t>-24,58; -8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 12,48</t>
+          <t>-12,48; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 17,98</t>
+          <t>-17,49; -4,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>261,99%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>167,32%</t>
+          <t>-7,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>146,73%</t>
+          <t>-23,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>-9,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>101,38%</t>
+          <t>-15,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>161,92%</t>
+          <t>-18,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>117,25%</t>
+          <t>-12,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 1269,78</t>
+          <t>-24,39; -1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,74; 551,24</t>
+          <t>-8,74; 6,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 1118,09</t>
+          <t>-16,18; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,92; 353,41</t>
+          <t>-35,94; -10,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 229,91</t>
+          <t>-22,16; 3,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 253,6</t>
+          <t>-25,52; -5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,81; 384,51</t>
+          <t>-26,65; -9,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 185,89</t>
+          <t>-13,52; 1,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,17; 274,09</t>
+          <t>-19,02; -4,95</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>-10,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>-19,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,36</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,58</t>
+          <t>-15,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,48</t>
+          <t>-25,48; -0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 10,34</t>
+          <t>-10,34; 7,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 28,3</t>
+          <t>-27,96; -8,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 21,5</t>
+          <t>-21,5; 2,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 7,81</t>
+          <t>-7,81; 14,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 22,56</t>
+          <t>-22,31; -2,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 18,71</t>
+          <t>-18,71; -1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 5,56</t>
+          <t>-5,56; 8,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 22,67</t>
+          <t>-22,32; -7,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>188,67%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>338,53%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,56%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>-10,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149,31%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,71; —</t>
+          <t>-26,35; -0,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,98; —</t>
+          <t>-10,62; 8,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,69; 1521,79</t>
+          <t>-28,84; -9,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 270,62</t>
+          <t>-24,0; 2,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 107,24</t>
+          <t>-8,55; 17,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 293,25</t>
+          <t>-24,59; -3,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 289,49</t>
+          <t>-20,52; -1,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,01; 88,01</t>
+          <t>-6,03; 10,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,91; 363,51</t>
+          <t>-24,11; -8,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-4,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 18,27</t>
+          <t>-19,42; 1,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 23,64</t>
+          <t>-23,64; -2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 11,62</t>
+          <t>-11,38; 2,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 27,12</t>
+          <t>-20,56; 4,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 19,38</t>
+          <t>-19,38; 5,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 12,9</t>
+          <t>-12,72; 5,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 20,5</t>
+          <t>-16,54; 0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 17,91</t>
+          <t>-17,91; -0,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 10,82</t>
+          <t>-10,61; 2,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>207,15%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>262,02%</t>
+          <t>-12,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>102,6%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,63%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>117,57%</t>
+          <t>-9,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>-5,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 1057,54</t>
+          <t>-20,59; 1,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 1456,14</t>
+          <t>-24,41; -3,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 741,23</t>
+          <t>-11,82; 2,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,35; 278,52</t>
+          <t>-23,42; 6,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 196,36</t>
+          <t>-21,98; 6,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 139,07</t>
+          <t>-14,39; 7,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,79; 291,6</t>
+          <t>-18,2; 0,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 250,17</t>
+          <t>-19,54; -0,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 170,34</t>
+          <t>-11,59; 3,0</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-1,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 25,2</t>
+          <t>-25,2; 14,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -1,64</t>
+          <t>1,64; 29,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 14,35</t>
+          <t>-14,12; 17,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 24,52</t>
+          <t>-24,52; 10,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 17,98</t>
+          <t>-17,98; 17,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 15,61</t>
+          <t>-15,22; 14,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 20,1</t>
+          <t>-20,1; 5,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 4,87</t>
+          <t>-4,87; 18,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 12,04</t>
+          <t>-11,72; 9,07</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-78,15%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>-1,72%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 303,17</t>
+          <t>-29,08; 20,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,21</t>
+          <t>1,86; 44,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 193,78</t>
+          <t>-15,57; 25,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 214,15</t>
+          <t>-29,16; 14,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 169,6</t>
+          <t>-20,44; 24,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 156,87</t>
+          <t>-17,11; 22,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 165,7</t>
+          <t>-23,8; 7,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 46,75</t>
+          <t>-5,58; 25,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 104,35</t>
+          <t>-13,16; 12,77</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>14,8</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>-12,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>-14,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>19,2</t>
+          <t>-19,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,12</t>
+          <t>-19,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>-13,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>-16,45</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,67</t>
+          <t>-16,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 28,96</t>
+          <t>-28,96; -0,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 25,54</t>
+          <t>-25,54; -0,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,74; 23,7</t>
+          <t>-23,64; -1,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 27,94</t>
+          <t>-27,94; 0,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,76; 34,6</t>
+          <t>-34,6; -3,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,05; 29,11</t>
+          <t>-29,13; -7,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,55; 23,9</t>
+          <t>-23,9; -4,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,45; 26,65</t>
+          <t>-26,65; -5,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,29; 23,83</t>
+          <t>-23,8; -8,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>189,41%</t>
+          <t>-16,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>164,71%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>190,08%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>100,02%</t>
+          <t>-15,75%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>141,09%</t>
+          <t>-22,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>140,49%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>123,96%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>145,88%</t>
+          <t>-18,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>147,75%</t>
+          <t>-18,7%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 1050,21</t>
+          <t>-30,1; -1,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 863,35</t>
+          <t>-26,86; -0,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,27; 1018,63</t>
+          <t>-24,89; -2,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 412,75</t>
+          <t>-31,01; -0,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,28; 519,8</t>
+          <t>-38,52; -5,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>27,33; 383,57</t>
+          <t>-31,88; -9,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,51; 338,31</t>
+          <t>-25,89; -5,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>31,11; 363,73</t>
+          <t>-29,07; -6,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>48,01; 364,83</t>
+          <t>-25,89; -10,21</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>-17,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>22,79</t>
+          <t>-22,79</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>-14,54</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>-16,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>-6,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,83; 20,33</t>
+          <t>-20,33; -3,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,32; 16,81</t>
+          <t>-16,81; -2,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,73</t>
+          <t>-14,37; -1,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,03; 26,02</t>
+          <t>-26,02; -10,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,91; 31,25</t>
+          <t>-31,25; -13,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 22,48</t>
+          <t>-22,14; 6,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,81; 20,52</t>
+          <t>-20,52; -8,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,81; 22,81</t>
+          <t>-22,81; -10,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 16,12</t>
+          <t>-15,76; 3,24</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>256,83%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>217,93%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>191,82%</t>
+          <t>-8,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>426,54%</t>
+          <t>-18,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>550,32%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>236,82%</t>
+          <t>-5,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>351,87%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>407,29%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>221,96%</t>
+          <t>-6,29%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,16; 1034,92</t>
+          <t>-21,03; -3,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>15,87; 892,49</t>
+          <t>-17,34; -2,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,51; 845,78</t>
+          <t>-14,79; -1,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>121,04; 1250,54</t>
+          <t>-27,34; -10,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>173,24; 1717,29</t>
+          <t>-32,69; -14,76</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 796,91</t>
+          <t>-23,1; 6,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>131,76; 838,89</t>
+          <t>-21,26; -9,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>159,37; 950,17</t>
+          <t>-23,58; -11,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,63; 518,6</t>
+          <t>-16,31; 3,6</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>2,51</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 4,28</t>
+          <t>-4,28; 12,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,63</t>
+          <t>-3,63; 12,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 2,87</t>
+          <t>-2,67; 11,83</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 9,28</t>
+          <t>-9,28; 9,35</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 3,21</t>
+          <t>-3,21; 14,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 8,2</t>
+          <t>-7,19; 8,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,91</t>
+          <t>-4,91; 7,7</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 1,27</t>
+          <t>-1,27; 10,92</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,06</t>
+          <t>-3,49; 8,12</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-31,86%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-29,84%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-30,31%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-71,52; 51,26</t>
+          <t>-4,75; 14,92</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 48,99</t>
+          <t>-3,84; 15,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 39,89</t>
+          <t>-2,8; 14,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 66,87</t>
+          <t>-11,13; 12,32</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-61,21; 22,7</t>
+          <t>-3,7; 19,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 61,9</t>
+          <t>-8,27; 12,03</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 40,3</t>
+          <t>-5,69; 9,66</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 10,74</t>
+          <t>-1,07; 13,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 34,0</t>
+          <t>-3,95; 10,4</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-5,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,84</t>
+          <t>-10,84; -3,09</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,27</t>
+          <t>-7,27; -0,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,21</t>
+          <t>-7,98; -1,8</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,97</t>
+          <t>-16,97; -8,12</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,69</t>
+          <t>-12,69; -3,89</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,56</t>
+          <t>-10,82; 4,6</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,03</t>
+          <t>-13,03; -7,09</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,18</t>
+          <t>-9,18; -3,59</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,29</t>
+          <t>-8,45; 0,17</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>30,64; 168,44</t>
+          <t>-11,82; -3,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5,34; 115,88</t>
+          <t>-7,81; -0,58</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>20,87; 136,4</t>
+          <t>-8,57; -2,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>50,61; 147,56</t>
+          <t>-19,18; -9,57</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>24,13; 110,88</t>
+          <t>-14,47; -4,81</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>6,95; 101,2</t>
+          <t>-12,35; 5,43</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>56,37; 133,21</t>
+          <t>-14,43; -8,18</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>29,49; 93,4</t>
+          <t>-10,21; -4,11</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>23,34; 96,13</t>
+          <t>-9,41; 0,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 8,79</t>
+          <t>-19,98; 8,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -1,41</t>
+          <t>-32,13; -0,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 17,95</t>
+          <t>-4,67; 16,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -21,73</t>
+          <t>-55,59; -21,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,77; -12,98</t>
+          <t>-47,1; -14,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 7,53</t>
+          <t>-16,42; 6,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,21; -11,62</t>
+          <t>-35,05; -11,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,71; -12,42</t>
+          <t>-35,42; -11,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 6,72</t>
+          <t>-8,94; 7,21</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 10,71</t>
+          <t>-21,72; 9,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -2,37</t>
+          <t>-34,97; -0,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 23,14</t>
+          <t>-4,83; 20,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,31; -25,56</t>
+          <t>-57,94; -25,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,9; -15,59</t>
+          <t>-49,1; -16,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 7,99</t>
+          <t>-16,84; 7,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,62; -13,19</t>
+          <t>-37,36; -13,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; -14,28</t>
+          <t>-38,12; -13,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 7,86</t>
+          <t>-9,28; 8,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -0,96</t>
+          <t>-24,59; -2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,88</t>
+          <t>-8,6; 5,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 1,23</t>
+          <t>-15,18; 1,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -8,26</t>
+          <t>-32,44; -8,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 3,18</t>
+          <t>-19,21; 2,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,82; -4,41</t>
+          <t>-22,06; -3,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -8,34</t>
+          <t>-25,27; -8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 1,78</t>
+          <t>-13,3; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -4,01</t>
+          <t>-17,33; -4,5</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -1,09</t>
+          <t>-25,32; -2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,51</t>
+          <t>-8,83; 6,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 1,17</t>
+          <t>-15,57; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -10,55</t>
+          <t>-36,56; -10,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 3,92</t>
+          <t>-21,56; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -5,68</t>
+          <t>-24,28; -4,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -9,65</t>
+          <t>-27,39; -9,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 1,96</t>
+          <t>-14,23; 2,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -4,95</t>
+          <t>-18,93; -5,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,48; -0,0</t>
+          <t>-23,75; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 7,83</t>
+          <t>-10,48; 7,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,96; -8,82</t>
+          <t>-28,25; -6,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 2,21</t>
+          <t>-22,02; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 14,15</t>
+          <t>-8,06; 13,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -2,36</t>
+          <t>-22,17; -1,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -1,09</t>
+          <t>-19,08; -1,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 8,92</t>
+          <t>-6,37; 8,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -7,28</t>
+          <t>-22,01; -7,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -0,28</t>
+          <t>-24,83; 1,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,64</t>
+          <t>-10,94; 7,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -9,88</t>
+          <t>-29,13; -8,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 2,68</t>
+          <t>-25,0; 3,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 17,38</t>
+          <t>-8,85; 17,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -3,03</t>
+          <t>-24,33; -2,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -1,8</t>
+          <t>-20,61; -1,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 10,39</t>
+          <t>-6,77; 10,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,11; -8,72</t>
+          <t>-23,91; -8,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 1,39</t>
+          <t>-19,84; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,64; -2,94</t>
+          <t>-24,64; -2,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 2,78</t>
+          <t>-12,59; 2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 4,82</t>
+          <t>-20,2; 5,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 5,55</t>
+          <t>-20,23; 6,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 5,85</t>
+          <t>-13,55; 6,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 0,62</t>
+          <t>-17,09; 0,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -0,41</t>
+          <t>-17,41; 0,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 2,52</t>
+          <t>-10,68; 2,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 1,42</t>
+          <t>-20,71; 0,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -3,25</t>
+          <t>-25,31; -2,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 2,96</t>
+          <t>-12,82; 2,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 6,26</t>
+          <t>-22,8; 6,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 6,96</t>
+          <t>-22,65; 7,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 7,58</t>
+          <t>-14,88; 9,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 0,52</t>
+          <t>-18,58; 0,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -0,6</t>
+          <t>-18,93; 0,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 3,0</t>
+          <t>-11,52; 2,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 14,44</t>
+          <t>-23,12; 14,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 29,94</t>
+          <t>0,91; 29,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 17,84</t>
+          <t>-13,96; 17,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 10,37</t>
+          <t>-27,71; 8,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 17,16</t>
+          <t>-19,5; 17,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 14,58</t>
+          <t>-16,31; 13,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 5,85</t>
+          <t>-19,8; 6,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 18,3</t>
+          <t>-6,45; 17,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 9,07</t>
+          <t>-12,15; 10,05</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 20,06</t>
+          <t>-26,19; 20,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,86; 44,34</t>
+          <t>1,03; 43,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 25,65</t>
+          <t>-15,4; 25,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 14,99</t>
+          <t>-31,73; 12,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 24,77</t>
+          <t>-21,81; 25,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 22,05</t>
+          <t>-17,99; 20,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 7,82</t>
+          <t>-23,92; 8,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 25,76</t>
+          <t>-7,13; 23,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 12,77</t>
+          <t>-13,59; 14,22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -0,94</t>
+          <t>-30,3; -1,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,54; -0,1</t>
+          <t>-27,18; -0,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,64; -1,68</t>
+          <t>-23,9; -3,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 0,06</t>
+          <t>-27,16; 0,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-34,6; -3,76</t>
+          <t>-35,59; -4,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -7,18</t>
+          <t>-29,36; -7,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -4,55</t>
+          <t>-24,06; -4,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -5,45</t>
+          <t>-26,87; -6,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,8; -8,27</t>
+          <t>-23,23; -8,0</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,1; -1,18</t>
+          <t>-32,15; -2,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -0,33</t>
+          <t>-28,89; -0,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,89; -2,35</t>
+          <t>-25,36; -4,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,01; -0,26</t>
+          <t>-30,31; 0,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,52; -5,23</t>
+          <t>-39,02; -4,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,88; -9,37</t>
+          <t>-32,27; -9,69</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,89; -5,35</t>
+          <t>-26,21; -5,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -6,76</t>
+          <t>-30,0; -7,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,89; -10,21</t>
+          <t>-25,13; -9,54</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -3,83</t>
+          <t>-20,14; -3,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -2,32</t>
+          <t>-16,42; -2,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -1,76</t>
+          <t>-14,32; -1,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -10,03</t>
+          <t>-25,88; -10,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-31,25; -13,91</t>
+          <t>-32,76; -15,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 6,1</t>
+          <t>-22,74; 4,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -8,81</t>
+          <t>-20,33; -9,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-22,81; -10,81</t>
+          <t>-23,03; -11,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 3,24</t>
+          <t>-15,41; 3,03</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -3,93</t>
+          <t>-20,74; -3,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -2,7</t>
+          <t>-17,22; -2,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -1,88</t>
+          <t>-14,63; -1,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -10,9</t>
+          <t>-26,59; -11,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,69; -14,76</t>
+          <t>-33,64; -16,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 6,7</t>
+          <t>-23,53; 4,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,26; -9,41</t>
+          <t>-21,1; -9,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,58; -11,42</t>
+          <t>-23,79; -11,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 3,6</t>
+          <t>-16,08; 3,24</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 12,1</t>
+          <t>-5,31; 12,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 12,86</t>
+          <t>-4,35; 12,14</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 11,83</t>
+          <t>-2,45; 12,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 9,35</t>
+          <t>-10,28; 8,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 14,52</t>
+          <t>-3,55; 14,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 8,87</t>
+          <t>-6,49; 9,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,7</t>
+          <t>-5,42; 7,89</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,92</t>
+          <t>-1,94; 10,45</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 8,12</t>
+          <t>-3,02; 8,15</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 14,92</t>
+          <t>-5,74; 15,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 15,67</t>
+          <t>-4,74; 14,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 14,89</t>
+          <t>-2,63; 15,07</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 12,32</t>
+          <t>-11,91; 11,77</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 19,15</t>
+          <t>-4,1; 19,16</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 12,03</t>
+          <t>-7,6; 13,29</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 9,66</t>
+          <t>-6,24; 9,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 13,88</t>
+          <t>-2,11; 13,06</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 10,4</t>
+          <t>-3,46; 10,37</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>-10,81; -2,97</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>-7,29; -0,33</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -1,8</t>
+          <t>-8,36; -2,02</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>-16,79; -7,81</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>-12,24; -3,82</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,6</t>
+          <t>-10,72; 4,74</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>-12,97; -7,18</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>-9,17; -3,35</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,17</t>
+          <t>-8,37; 0,46</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>-11,75; -3,35</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>-7,78; -0,36</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -2,06</t>
+          <t>-8,89; -2,22</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>-19,08; -9,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>-13,84; -4,53</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 5,43</t>
+          <t>-12,29; 5,53</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>-14,43; -8,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>-10,31; -3,86</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 0,22</t>
+          <t>-9,32; 0,81</t>
         </is>
       </c>
     </row>
